--- a/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Jag2-Notch2.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Jag2-Notch2.xlsx
@@ -534,16 +534,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>7.235147999999999</v>
+        <v>19.35876433333334</v>
       </c>
       <c r="H2">
-        <v>21.705444</v>
+        <v>58.07629300000001</v>
       </c>
       <c r="I2">
-        <v>0.9254344869740032</v>
+        <v>0.9707667559429034</v>
       </c>
       <c r="J2">
-        <v>0.9254344869740032</v>
+        <v>0.9707667559429034</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>33.380049</v>
+        <v>1.492477333333333</v>
       </c>
       <c r="N2">
-        <v>100.140147</v>
+        <v>4.477432</v>
       </c>
       <c r="O2">
-        <v>0.3891462059670435</v>
+        <v>0.02769484181536182</v>
       </c>
       <c r="P2">
-        <v>0.3891462059670435</v>
+        <v>0.02769484181536182</v>
       </c>
       <c r="Q2">
-        <v>241.509594762252</v>
+        <v>28.89251696884179</v>
       </c>
       <c r="R2">
-        <v>2173.586352860268</v>
+        <v>260.032652719576</v>
       </c>
       <c r="S2">
-        <v>0.3601293194769907</v>
+        <v>0.02688523174545067</v>
       </c>
       <c r="T2">
-        <v>0.3601293194769907</v>
+        <v>0.02688523174545067</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,16 +596,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>7.235147999999999</v>
+        <v>19.35876433333334</v>
       </c>
       <c r="H3">
-        <v>21.705444</v>
+        <v>58.07629300000001</v>
       </c>
       <c r="I3">
-        <v>0.9254344869740032</v>
+        <v>0.9707667559429034</v>
       </c>
       <c r="J3">
-        <v>0.9254344869740032</v>
+        <v>0.9707667559429034</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>101.573584</v>
       </c>
       <c r="O3">
-        <v>0.3947165649764305</v>
+        <v>0.6282762845978157</v>
       </c>
       <c r="P3">
-        <v>0.3947165649764305</v>
+        <v>0.6282762845978156</v>
       </c>
       <c r="Q3">
-        <v>244.966637710144</v>
+        <v>655.4463583826794</v>
       </c>
       <c r="R3">
-        <v>2204.699739391296</v>
+        <v>5899.017225444113</v>
       </c>
       <c r="S3">
-        <v>0.3652843218091038</v>
+        <v>0.6099097306348819</v>
       </c>
       <c r="T3">
-        <v>0.3652843218091038</v>
+        <v>0.6099097306348817</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,16 +658,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>7.235147999999999</v>
+        <v>19.35876433333334</v>
       </c>
       <c r="H4">
-        <v>21.705444</v>
+        <v>58.07629300000001</v>
       </c>
       <c r="I4">
-        <v>0.9254344869740032</v>
+        <v>0.9707667559429034</v>
       </c>
       <c r="J4">
-        <v>0.9254344869740032</v>
+        <v>0.9707667559429034</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,25 +679,25 @@
         <v>18.53974466666667</v>
       </c>
       <c r="N4">
-        <v>55.61923400000001</v>
+        <v>55.619234</v>
       </c>
       <c r="O4">
-        <v>0.2161372290565261</v>
+        <v>0.3440288735868225</v>
       </c>
       <c r="P4">
-        <v>0.2161372290565261</v>
+        <v>0.3440288735868225</v>
       </c>
       <c r="Q4">
-        <v>134.137796545544</v>
+        <v>358.9065478021736</v>
       </c>
       <c r="R4">
-        <v>1207.240168909896</v>
+        <v>3230.158930219562</v>
       </c>
       <c r="S4">
-        <v>0.2000208456879088</v>
+        <v>0.333971793562571</v>
       </c>
       <c r="T4">
-        <v>0.2000208456879088</v>
+        <v>0.333971793562571</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,13 +723,13 @@
         <v>0.3016356666666667</v>
       </c>
       <c r="H5">
-        <v>0.904907</v>
+        <v>0.9049070000000001</v>
       </c>
       <c r="I5">
-        <v>0.03858166390441884</v>
+        <v>0.01512585579145048</v>
       </c>
       <c r="J5">
-        <v>0.03858166390441884</v>
+        <v>0.01512585579145048</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>33.380049</v>
+        <v>1.492477333333333</v>
       </c>
       <c r="N5">
-        <v>100.140147</v>
+        <v>4.477432</v>
       </c>
       <c r="O5">
-        <v>0.3891462059670435</v>
+        <v>0.02769484181536182</v>
       </c>
       <c r="P5">
-        <v>0.3891462059670435</v>
+        <v>0.02769484181536182</v>
       </c>
       <c r="Q5">
-        <v>10.068613333481</v>
+        <v>0.450184395424889</v>
       </c>
       <c r="R5">
-        <v>90.617520001329</v>
+        <v>4.051659558824001</v>
       </c>
       <c r="S5">
-        <v>0.01501390812830022</v>
+        <v>0.0004189081834661955</v>
       </c>
       <c r="T5">
-        <v>0.01501390812830022</v>
+        <v>0.0004189081834661955</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -785,13 +785,13 @@
         <v>0.3016356666666667</v>
       </c>
       <c r="H6">
-        <v>0.904907</v>
+        <v>0.9049070000000001</v>
       </c>
       <c r="I6">
-        <v>0.03858166390441884</v>
+        <v>0.01512585579145048</v>
       </c>
       <c r="J6">
-        <v>0.03858166390441884</v>
+        <v>0.01512585579145048</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,22 +806,22 @@
         <v>101.573584</v>
       </c>
       <c r="O6">
-        <v>0.3947165649764305</v>
+        <v>0.6282762845978157</v>
       </c>
       <c r="P6">
-        <v>0.3947165649764305</v>
+        <v>0.6282762845978156</v>
       </c>
       <c r="Q6">
         <v>10.21273857518756</v>
       </c>
       <c r="R6">
-        <v>91.91464717668801</v>
+        <v>91.91464717668802</v>
       </c>
       <c r="S6">
-        <v>0.01522882184742734</v>
+        <v>0.009503216478014859</v>
       </c>
       <c r="T6">
-        <v>0.01522882184742734</v>
+        <v>0.009503216478014859</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -847,13 +847,13 @@
         <v>0.3016356666666667</v>
       </c>
       <c r="H7">
-        <v>0.904907</v>
+        <v>0.9049070000000001</v>
       </c>
       <c r="I7">
-        <v>0.03858166390441884</v>
+        <v>0.01512585579145048</v>
       </c>
       <c r="J7">
-        <v>0.03858166390441884</v>
+        <v>0.01512585579145048</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -865,13 +865,13 @@
         <v>18.53974466666667</v>
       </c>
       <c r="N7">
-        <v>55.61923400000001</v>
+        <v>55.619234</v>
       </c>
       <c r="O7">
-        <v>0.2161372290565261</v>
+        <v>0.3440288735868225</v>
       </c>
       <c r="P7">
-        <v>0.2161372290565261</v>
+        <v>0.3440288735868225</v>
       </c>
       <c r="Q7">
         <v>5.592248242359778</v>
@@ -880,10 +880,10 @@
         <v>50.330234181238</v>
       </c>
       <c r="S7">
-        <v>0.00833893392869128</v>
+        <v>0.005203731129969424</v>
       </c>
       <c r="T7">
-        <v>0.00833893392869128</v>
+        <v>0.005203731129969425</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,16 +906,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>0.2813256666666667</v>
+        <v>0.2813256666666666</v>
       </c>
       <c r="H8">
-        <v>0.8439770000000001</v>
+        <v>0.843977</v>
       </c>
       <c r="I8">
-        <v>0.03598384912157791</v>
+        <v>0.01410738826564608</v>
       </c>
       <c r="J8">
-        <v>0.03598384912157791</v>
+        <v>0.01410738826564608</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -924,28 +924,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>33.380049</v>
+        <v>1.492477333333333</v>
       </c>
       <c r="N8">
-        <v>100.140147</v>
+        <v>4.477432</v>
       </c>
       <c r="O8">
-        <v>0.3891462059670435</v>
+        <v>0.02769484181536182</v>
       </c>
       <c r="P8">
-        <v>0.3891462059670435</v>
+        <v>0.02769484181536182</v>
       </c>
       <c r="Q8">
-        <v>9.390664538291</v>
+        <v>0.4198721807848889</v>
       </c>
       <c r="R8">
-        <v>84.51598084461901</v>
+        <v>3.778849627064</v>
       </c>
       <c r="S8">
-        <v>0.01400297836175258</v>
+        <v>0.0003907018864449598</v>
       </c>
       <c r="T8">
-        <v>0.01400297836175258</v>
+        <v>0.0003907018864449598</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,16 +968,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>0.2813256666666667</v>
+        <v>0.2813256666666666</v>
       </c>
       <c r="H9">
-        <v>0.8439770000000001</v>
+        <v>0.843977</v>
       </c>
       <c r="I9">
-        <v>0.03598384912157791</v>
+        <v>0.01410738826564608</v>
       </c>
       <c r="J9">
-        <v>0.03598384912157791</v>
+        <v>0.01410738826564608</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,22 +992,22 @@
         <v>101.573584</v>
       </c>
       <c r="O9">
-        <v>0.3947165649764305</v>
+        <v>0.6282762845978157</v>
       </c>
       <c r="P9">
-        <v>0.3947165649764305</v>
+        <v>0.6282762845978156</v>
       </c>
       <c r="Q9">
-        <v>9.525085411507558</v>
+        <v>9.525085411507556</v>
       </c>
       <c r="R9">
-        <v>85.72576870356802</v>
+        <v>85.72576870356801</v>
       </c>
       <c r="S9">
-        <v>0.01420342131989938</v>
+        <v>0.008863337484918942</v>
       </c>
       <c r="T9">
-        <v>0.01420342131989938</v>
+        <v>0.008863337484918942</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,16 +1030,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.2813256666666667</v>
+        <v>0.2813256666666666</v>
       </c>
       <c r="H10">
-        <v>0.8439770000000001</v>
+        <v>0.843977</v>
       </c>
       <c r="I10">
-        <v>0.03598384912157791</v>
+        <v>0.01410738826564608</v>
       </c>
       <c r="J10">
-        <v>0.03598384912157791</v>
+        <v>0.01410738826564608</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,25 +1051,25 @@
         <v>18.53974466666667</v>
       </c>
       <c r="N10">
-        <v>55.61923400000001</v>
+        <v>55.619234</v>
       </c>
       <c r="O10">
-        <v>0.2161372290565261</v>
+        <v>0.3440288735868225</v>
       </c>
       <c r="P10">
-        <v>0.2161372290565261</v>
+        <v>0.3440288735868225</v>
       </c>
       <c r="Q10">
         <v>5.215706028179778</v>
       </c>
       <c r="R10">
-        <v>46.94135425361801</v>
+        <v>46.94135425361799</v>
       </c>
       <c r="S10">
-        <v>0.00777744943992596</v>
+        <v>0.004853348894282179</v>
       </c>
       <c r="T10">
-        <v>0.00777744943992596</v>
+        <v>0.00485334889428218</v>
       </c>
     </row>
   </sheetData>
